--- a/AWSServerless_Google_Geocoding_Mvc/Content/FileUpload/test.xlsx
+++ b/AWSServerless_Google_Geocoding_Mvc/Content/FileUpload/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Enlem</t>
   </si>
@@ -30,43 +30,31 @@
     <t>Adres</t>
   </si>
   <si>
+    <t>41,037071</t>
+  </si>
+  <si>
+    <t>28,88516</t>
+  </si>
+  <si>
+    <t>41,017058</t>
+  </si>
+  <si>
+    <t>28,985568</t>
+  </si>
+  <si>
     <t>İstanbul/Türkiye</t>
   </si>
   <si>
+    <t>41,079399</t>
+  </si>
+  <si>
+    <t>28,97637</t>
+  </si>
+  <si>
     <t>Kağıthane/İstanbul</t>
   </si>
   <si>
     <t>Esenler/İstanbul</t>
-  </si>
-  <si>
-    <t>41,017058</t>
-  </si>
-  <si>
-    <t>28,985568</t>
-  </si>
-  <si>
-    <t>41,079399</t>
-  </si>
-  <si>
-    <t>28,976370</t>
-  </si>
-  <si>
-    <t>41,037071</t>
-  </si>
-  <si>
-    <t>28,885160</t>
-  </si>
-  <si>
-    <t>41,037072</t>
-  </si>
-  <si>
-    <t>28,885161</t>
-  </si>
-  <si>
-    <t>41,037073</t>
-  </si>
-  <si>
-    <t>28,885162</t>
   </si>
 </sst>
 </file>
@@ -388,7 +376,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,13 +398,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,43 +415,30 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>